--- a/video_test/video_list.xlsx
+++ b/video_test/video_list.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domi_\TFG_code\video_test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFBBB61-4483-473E-A450-223AA3200BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +25,377 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+  <si>
+    <t>https://www.youtube.com/watch?v=pvLec4Fftmk</t>
+  </si>
+  <si>
+    <t>Puerta del Ángel</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pvLec4Fftmk&amp;t=209s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E3Pm9nUN9cg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b65hnq8bT28</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CnxRgxf8DXE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TyJTgv93LRo&amp;t=5s</t>
+  </si>
+  <si>
+    <t>https://treneando.com/tag/caida/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R4sfv3ST1qs</t>
+  </si>
+  <si>
+    <t>https://www.diariodesevilla.es/sociedad/video-peligrosa-caida-Metro-Madrid-mirar-movil_0_1403560082.html</t>
+  </si>
+  <si>
+    <t>Estrecho</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>https://tv.libertaddigital.com/videos/2019-10-25/escalofriante-caida-a-las-vias-del-metro-de-madrid-por-mirar-el-movil-6071614.html</t>
+  </si>
+  <si>
+    <t>https://elpais.com/ccaa/2017/01/25/madrid/1485358970_161625.html</t>
+  </si>
+  <si>
+    <t>Chueca</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n5PmW-y1dxw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3oLNQUlHQo4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GZL_chag1P8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wde52w9Lp90</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z84k82QuSOs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TLkBXlCG81s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TTqo-E5oRqM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KFGHftjtpgQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X-NsHHhzkQw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EtTYrYxiiO4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9SiyoaC8_pI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BBCdaiMuknc</t>
+  </si>
+  <si>
+    <t>https://www.telemadrid.es/noticias/madrid/Milagro-de-verano-en-el-Cercanias-de-Madrid-un-hombre-cae-a-la-via-y-es-rescatado-por-un-policia-2-2476572322--20220809095122.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1Ub6bz_U_Tw</t>
+  </si>
+  <si>
+    <t>Marqués de Vadillo</t>
+  </si>
+  <si>
+    <t>Lavapiés</t>
+  </si>
+  <si>
+    <t>Video presentación</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">camera_1 = controler.Camera(camera_id = '1', line = 'L06', station = 'Puerta del Ángel', platform = '2' , against_direction = '0', path = 'video_test/01.mp4') </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">camera_2 = controler.Camera(camera_id = '2', line = 'L05', station = 'Marqués de Vadillo', platform = '2' , against_direction = '0', path = 'video_test/02.mp4') </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_3 = controler.Camera(camera_id = '3', line = 'L03', station = 'Lavapiés', platform = '2' , against_direction = '0', path = 'video_test/03.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_4 = controler.Camera(camera_id = '4', line = 'L01', station = 'Estrecho ', platform = '1' , against_direction = '0', path = 'video_test/04.mp4')        </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_5 = controler.Camera(camera_id = '5', line = 'L05', station = 'Chueca', platform = '1' , against_direction = '0', path = 'video_test/05.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_6 = controler.Camera(camera_id = '6', line = 'L02', station = 'Opera', platform = '2' , against_direction = '0', path = 'video_test/06.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_7 = controler.Camera(camera_id = '7', line = 'L01', station = 'Sol', platform = '1' , against_direction = '0', path = 'video_test/07.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_8 = controler.Camera(camera_id = '8', line = 'L06', station = 'Puerta del Ángel', platform = '2' , against_direction = '0', path = 'video_test/01 b.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_9 = controler.Camera(camera_id = '9', line = 'L05', station = 'Marqués de Vadillo', platform = '2' , against_direction = '0', path = 'video_test/02 b.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_10 = controler.Camera(camera_id = '10', line = 'L05', station = 'Chueca', platform = '1' , against_direction = '0', path = 'video_test/05 b.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_11 = controler.Camera(camera_id = '11', line = 'L02', station = 'Opera', platform = '1' , against_direction = '0', path = 'video_test/06 b.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>camera_12 = controler.Camera(camera_id = '12', line = 'L01', station = 'Sol', platform = '1' , against_direction = '0', path = 'video_test/07 b.mp4')</t>
+    </r>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>camera_id</t>
+  </si>
+  <si>
+    <t>against_direction</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>L02</t>
+  </si>
+  <si>
+    <t>L01</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>L06</t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>L03</t>
+  </si>
+  <si>
+    <t>video_test/01.mp4</t>
+  </si>
+  <si>
+    <t>video_test/02.mp4</t>
+  </si>
+  <si>
+    <t>video_test/03.mp4</t>
+  </si>
+  <si>
+    <t>video_test/04.mp4</t>
+  </si>
+  <si>
+    <t>video_test/05.mp4</t>
+  </si>
+  <si>
+    <t>video_test/06.mp4</t>
+  </si>
+  <si>
+    <t>video_test/07.mp4</t>
+  </si>
+  <si>
+    <t>video_test/01 b.mp4</t>
+  </si>
+  <si>
+    <t>video_test/02 b.mp4</t>
+  </si>
+  <si>
+    <t>video_test/05 b.mp4</t>
+  </si>
+  <si>
+    <t>video_test/06 b.mp4</t>
+  </si>
+  <si>
+    <t>video_test/07 b.mp4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,13 +415,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +723,756 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="79.53515625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="154" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.84375" customWidth="1"/>
+    <col min="4" max="4" width="4.61328125" customWidth="1"/>
+    <col min="5" max="5" width="230.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{9CCF29B1-33A8-4FF8-B529-967D0080018F}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{DD8D3631-9488-4689-8B8C-877F593E2925}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{31C9C39A-5907-4913-AD3D-E21DD21E6BDD}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{788D6877-790D-455B-BEE6-ED2BB9D13356}"/>
+    <hyperlink ref="B20" r:id="rId5" xr:uid="{384F8F97-AF6D-4963-AE52-2ECCD772162E}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{D75DD191-615D-4016-85CB-264AAE393068}"/>
+    <hyperlink ref="B28" r:id="rId7" xr:uid="{E948958A-8A8B-49A8-9CE4-0EA45BD88245}"/>
+    <hyperlink ref="B29" r:id="rId8" xr:uid="{7CB22F15-8B1D-4EB2-9F80-7849CAC6437B}"/>
+    <hyperlink ref="B30" r:id="rId9" xr:uid="{D2A6500A-E1CE-4C3B-81A9-1715691CEA25}"/>
+    <hyperlink ref="B31" r:id="rId10" xr:uid="{90528EF9-C6AF-452A-A0EF-141719F34159}"/>
+    <hyperlink ref="B35" r:id="rId11" xr:uid="{15D6C2EC-9F5D-48BC-86F2-625B69C187EB}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{1BB2FFB1-CE26-47E4-961B-0A161E871F49}"/>
+    <hyperlink ref="B21" r:id="rId13" xr:uid="{91CED162-8461-44E8-BC0B-BB89A5B1F088}"/>
+    <hyperlink ref="B22" r:id="rId14" xr:uid="{B7F7CC52-660C-4649-AD48-2E0B5A5A7A6F}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{1D86BEF4-4E37-44FA-A3A2-E22C9BFEAA3D}"/>
+    <hyperlink ref="B27" r:id="rId16" xr:uid="{9FC35642-5419-437F-9BF0-55C81018FD56}"/>
+    <hyperlink ref="B32" r:id="rId17" xr:uid="{334E2DD8-3577-4ADB-BF85-9849B72167D0}"/>
+    <hyperlink ref="B33" r:id="rId18" xr:uid="{8917BFA7-B1AC-4043-B29E-39EC5797FDD1}"/>
+    <hyperlink ref="B34" r:id="rId19" xr:uid="{C50A2511-547F-40B7-B92E-440279E6E1EC}"/>
+    <hyperlink ref="B36" r:id="rId20" xr:uid="{60E4A5C9-9779-44BD-AD30-ABB35F69AE96}"/>
+    <hyperlink ref="B37" r:id="rId21" xr:uid="{3380B297-E2E3-4F11-B67A-38573C29093B}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{66D35FBB-03F0-412B-BF5D-E5E33FD20F7A}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{35F06F9F-75F8-482D-9A63-0072D6D20193}"/>
+    <hyperlink ref="B40" r:id="rId24" xr:uid="{A894D2FB-46CC-40CE-8C72-A8A812ED21D8}"/>
+    <hyperlink ref="B41" r:id="rId25" xr:uid="{94A3D29A-CF80-4C8B-B269-377E25313755}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF54BDE-BF71-4EBA-B26D-70D36D024B88}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.15234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>